--- a/tmp.xlsx
+++ b/tmp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\sjh\미니프로젝트\파이썬 파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD65BE0-93B1-4E8C-BBB0-0FD883B3E6A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412134BD-3737-44A9-BD12-51EA7A166E1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="4" r:id="rId1"/>
@@ -912,7 +912,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -981,6 +981,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1168,7 +1174,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1365,27 +1371,27 @@
     <xf numFmtId="178" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1418,6 +1424,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2292,7 +2301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA910DD3-3033-457F-8F4B-ECE315183782}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
@@ -2801,8 +2810,8 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3206,9 +3215,9 @@
       <c r="B15" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="18" t="e">
-        <f>'3. 영역별 보안지수'!G4*100</f>
-        <v>#VALUE!</v>
+      <c r="C15" s="18" t="str">
+        <f>IF('3. 영역별 보안지수'!G4="N/A","N/A",'3. 영역별 보안지수'!G4*100)</f>
+        <v>N/A</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -3234,9 +3243,9 @@
       <c r="B16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="18" t="e">
-        <f>'3. 영역별 보안지수'!G19*100</f>
-        <v>#VALUE!</v>
+      <c r="C16" s="18" t="str">
+        <f>IF('3. 영역별 보안지수'!G19="N/A","N/A",'3. 영역별 보안지수'!G19*100)</f>
+        <v>N/A</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
@@ -3262,9 +3271,9 @@
       <c r="B17" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="18" t="e">
-        <f>'3. 영역별 보안지수'!G38*100</f>
-        <v>#VALUE!</v>
+      <c r="C17" s="18" t="str">
+        <f>IF('3. 영역별 보안지수'!G38="N/A","N/A",'3. 영역별 보안지수'!G38*100)</f>
+        <v>N/A</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -3290,9 +3299,9 @@
       <c r="B18" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="18" t="e">
-        <f>'3. 영역별 보안지수'!G73*100</f>
-        <v>#VALUE!</v>
+      <c r="C18" s="18" t="str">
+        <f>IF('3. 영역별 보안지수'!G73="N/A","N/A",'3. 영역별 보안지수'!G73*100)</f>
+        <v>N/A</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -3318,9 +3327,9 @@
       <c r="B19" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="18" t="e">
-        <f>'3. 영역별 보안지수'!G74*100</f>
-        <v>#VALUE!</v>
+      <c r="C19" s="18" t="str">
+        <f>IF('3. 영역별 보안지수'!G74="N/A","N/A",'3. 영역별 보안지수'!G74*100)</f>
+        <v>N/A</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -3633,8 +3642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45F2E8F-A2BF-4BC4-802C-756FF47382CA}">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77:G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3647,24 +3656,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="44" t="s">
@@ -3693,7 +3702,7 @@
       <c r="A4" s="40">
         <v>3</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="81" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="36">
@@ -3718,7 +3727,7 @@
       <c r="A5" s="40">
         <v>3</v>
       </c>
-      <c r="B5" s="77"/>
+      <c r="B5" s="79"/>
       <c r="C5" s="36">
         <v>0</v>
       </c>
@@ -3738,7 +3747,7 @@
       <c r="A6" s="40">
         <v>3</v>
       </c>
-      <c r="B6" s="77"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="36">
         <v>0</v>
       </c>
@@ -3758,7 +3767,7 @@
       <c r="A7" s="40">
         <v>3</v>
       </c>
-      <c r="B7" s="77"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="36">
         <v>0</v>
       </c>
@@ -3778,7 +3787,7 @@
       <c r="A8" s="40">
         <v>2</v>
       </c>
-      <c r="B8" s="77"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="36">
         <v>0</v>
       </c>
@@ -3798,7 +3807,7 @@
       <c r="A9" s="40">
         <v>1</v>
       </c>
-      <c r="B9" s="77"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="36">
         <v>0</v>
       </c>
@@ -3818,7 +3827,7 @@
       <c r="A10" s="40">
         <v>2</v>
       </c>
-      <c r="B10" s="77"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="36">
         <v>0</v>
       </c>
@@ -3838,7 +3847,7 @@
       <c r="A11" s="40">
         <v>2</v>
       </c>
-      <c r="B11" s="77"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="59">
         <v>0</v>
       </c>
@@ -3858,7 +3867,7 @@
       <c r="A12" s="40">
         <v>2</v>
       </c>
-      <c r="B12" s="77"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="59">
         <v>0</v>
       </c>
@@ -3878,7 +3887,7 @@
       <c r="A13" s="40">
         <v>1</v>
       </c>
-      <c r="B13" s="77"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="59">
         <v>0</v>
       </c>
@@ -3898,7 +3907,7 @@
       <c r="A14" s="40">
         <v>1</v>
       </c>
-      <c r="B14" s="77"/>
+      <c r="B14" s="79"/>
       <c r="C14" s="59">
         <v>0</v>
       </c>
@@ -3918,7 +3927,7 @@
       <c r="A15" s="40">
         <v>1</v>
       </c>
-      <c r="B15" s="77"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="59">
         <v>0</v>
       </c>
@@ -3938,7 +3947,7 @@
       <c r="A16" s="40">
         <v>2</v>
       </c>
-      <c r="B16" s="77"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="59">
         <v>0</v>
       </c>
@@ -3958,7 +3967,7 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="77"/>
+      <c r="B17" s="79"/>
       <c r="C17" s="59">
         <v>0</v>
       </c>
@@ -3978,7 +3987,7 @@
       <c r="A18" s="40">
         <v>1</v>
       </c>
-      <c r="B18" s="78"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="59">
         <v>0</v>
       </c>
@@ -3998,7 +4007,7 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="78" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="59">
@@ -4023,7 +4032,7 @@
       <c r="A20" s="40">
         <v>3</v>
       </c>
-      <c r="B20" s="77"/>
+      <c r="B20" s="79"/>
       <c r="C20" s="59">
         <v>0</v>
       </c>
@@ -4043,7 +4052,7 @@
       <c r="A21" s="40">
         <v>3</v>
       </c>
-      <c r="B21" s="77"/>
+      <c r="B21" s="79"/>
       <c r="C21" s="59">
         <v>0</v>
       </c>
@@ -4063,7 +4072,7 @@
       <c r="A22" s="40">
         <v>3</v>
       </c>
-      <c r="B22" s="77"/>
+      <c r="B22" s="79"/>
       <c r="C22" s="59">
         <v>0</v>
       </c>
@@ -4083,7 +4092,7 @@
       <c r="A23" s="40">
         <v>3</v>
       </c>
-      <c r="B23" s="77"/>
+      <c r="B23" s="79"/>
       <c r="C23" s="59">
         <v>0</v>
       </c>
@@ -4103,7 +4112,7 @@
       <c r="A24" s="40">
         <v>3</v>
       </c>
-      <c r="B24" s="77"/>
+      <c r="B24" s="79"/>
       <c r="C24" s="59">
         <v>0</v>
       </c>
@@ -4123,7 +4132,7 @@
       <c r="A25" s="40">
         <v>3</v>
       </c>
-      <c r="B25" s="77"/>
+      <c r="B25" s="79"/>
       <c r="C25" s="59">
         <v>0</v>
       </c>
@@ -4143,7 +4152,7 @@
       <c r="A26" s="40">
         <v>3</v>
       </c>
-      <c r="B26" s="77"/>
+      <c r="B26" s="79"/>
       <c r="C26" s="59">
         <v>0</v>
       </c>
@@ -4163,7 +4172,7 @@
       <c r="A27" s="40">
         <v>3</v>
       </c>
-      <c r="B27" s="77"/>
+      <c r="B27" s="79"/>
       <c r="C27" s="59">
         <v>0</v>
       </c>
@@ -4183,7 +4192,7 @@
       <c r="A28" s="40">
         <v>3</v>
       </c>
-      <c r="B28" s="77"/>
+      <c r="B28" s="79"/>
       <c r="C28" s="59">
         <v>0</v>
       </c>
@@ -4203,7 +4212,7 @@
       <c r="A29" s="40">
         <v>3</v>
       </c>
-      <c r="B29" s="77"/>
+      <c r="B29" s="79"/>
       <c r="C29" s="59">
         <v>0</v>
       </c>
@@ -4223,7 +4232,7 @@
       <c r="A30" s="40">
         <v>3</v>
       </c>
-      <c r="B30" s="77"/>
+      <c r="B30" s="79"/>
       <c r="C30" s="59">
         <v>0</v>
       </c>
@@ -4243,7 +4252,7 @@
       <c r="A31" s="40">
         <v>3</v>
       </c>
-      <c r="B31" s="77"/>
+      <c r="B31" s="79"/>
       <c r="C31" s="59">
         <v>0</v>
       </c>
@@ -4263,7 +4272,7 @@
       <c r="A32" s="40">
         <v>3</v>
       </c>
-      <c r="B32" s="77"/>
+      <c r="B32" s="79"/>
       <c r="C32" s="59">
         <v>0</v>
       </c>
@@ -4283,7 +4292,7 @@
       <c r="A33" s="40">
         <v>1</v>
       </c>
-      <c r="B33" s="77"/>
+      <c r="B33" s="79"/>
       <c r="C33" s="59">
         <v>0</v>
       </c>
@@ -4303,7 +4312,7 @@
       <c r="A34" s="40">
         <v>2</v>
       </c>
-      <c r="B34" s="77"/>
+      <c r="B34" s="79"/>
       <c r="C34" s="59">
         <v>0</v>
       </c>
@@ -4323,7 +4332,7 @@
       <c r="A35" s="40">
         <v>2</v>
       </c>
-      <c r="B35" s="77"/>
+      <c r="B35" s="79"/>
       <c r="C35" s="59">
         <v>0</v>
       </c>
@@ -4343,7 +4352,7 @@
       <c r="A36" s="40">
         <v>2</v>
       </c>
-      <c r="B36" s="77"/>
+      <c r="B36" s="79"/>
       <c r="C36" s="59">
         <v>0</v>
       </c>
@@ -4363,7 +4372,7 @@
       <c r="A37" s="40">
         <v>1</v>
       </c>
-      <c r="B37" s="78"/>
+      <c r="B37" s="80"/>
       <c r="C37" s="59">
         <v>0</v>
       </c>
@@ -4383,7 +4392,7 @@
       <c r="A38" s="40">
         <v>3</v>
       </c>
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="81" t="s">
         <v>29</v>
       </c>
       <c r="C38" s="59">
@@ -4408,7 +4417,7 @@
       <c r="A39" s="40">
         <v>3</v>
       </c>
-      <c r="B39" s="77"/>
+      <c r="B39" s="79"/>
       <c r="C39" s="59">
         <v>0</v>
       </c>
@@ -4428,7 +4437,7 @@
       <c r="A40" s="40">
         <v>3</v>
       </c>
-      <c r="B40" s="77"/>
+      <c r="B40" s="79"/>
       <c r="C40" s="59">
         <v>0</v>
       </c>
@@ -4448,7 +4457,7 @@
       <c r="A41" s="40">
         <v>3</v>
       </c>
-      <c r="B41" s="77"/>
+      <c r="B41" s="79"/>
       <c r="C41" s="59">
         <v>0</v>
       </c>
@@ -4468,7 +4477,7 @@
       <c r="A42" s="40">
         <v>3</v>
       </c>
-      <c r="B42" s="77"/>
+      <c r="B42" s="79"/>
       <c r="C42" s="59">
         <v>0</v>
       </c>
@@ -4488,7 +4497,7 @@
       <c r="A43" s="40">
         <v>3</v>
       </c>
-      <c r="B43" s="77"/>
+      <c r="B43" s="79"/>
       <c r="C43" s="59">
         <v>0</v>
       </c>
@@ -4508,7 +4517,7 @@
       <c r="A44" s="40">
         <v>3</v>
       </c>
-      <c r="B44" s="77"/>
+      <c r="B44" s="79"/>
       <c r="C44" s="59">
         <v>0</v>
       </c>
@@ -4528,7 +4537,7 @@
       <c r="A45" s="40">
         <v>3</v>
       </c>
-      <c r="B45" s="77"/>
+      <c r="B45" s="79"/>
       <c r="C45" s="59">
         <v>0</v>
       </c>
@@ -4548,7 +4557,7 @@
       <c r="A46" s="40">
         <v>3</v>
       </c>
-      <c r="B46" s="77"/>
+      <c r="B46" s="79"/>
       <c r="C46" s="59">
         <v>0</v>
       </c>
@@ -4568,7 +4577,7 @@
       <c r="A47" s="40">
         <v>3</v>
       </c>
-      <c r="B47" s="77"/>
+      <c r="B47" s="79"/>
       <c r="C47" s="59">
         <v>0</v>
       </c>
@@ -4588,7 +4597,7 @@
       <c r="A48" s="40">
         <v>3</v>
       </c>
-      <c r="B48" s="77"/>
+      <c r="B48" s="79"/>
       <c r="C48" s="59">
         <v>0</v>
       </c>
@@ -4608,7 +4617,7 @@
       <c r="A49" s="40">
         <v>3</v>
       </c>
-      <c r="B49" s="77"/>
+      <c r="B49" s="79"/>
       <c r="C49" s="59">
         <v>0</v>
       </c>
@@ -4628,7 +4637,7 @@
       <c r="A50" s="40">
         <v>3</v>
       </c>
-      <c r="B50" s="77"/>
+      <c r="B50" s="79"/>
       <c r="C50" s="59">
         <v>0</v>
       </c>
@@ -4648,7 +4657,7 @@
       <c r="A51" s="40">
         <v>3</v>
       </c>
-      <c r="B51" s="77"/>
+      <c r="B51" s="79"/>
       <c r="C51" s="59">
         <v>0</v>
       </c>
@@ -4668,7 +4677,7 @@
       <c r="A52" s="40">
         <v>3</v>
       </c>
-      <c r="B52" s="77"/>
+      <c r="B52" s="79"/>
       <c r="C52" s="59">
         <v>0</v>
       </c>
@@ -4688,7 +4697,7 @@
       <c r="A53" s="40">
         <v>3</v>
       </c>
-      <c r="B53" s="77"/>
+      <c r="B53" s="79"/>
       <c r="C53" s="59">
         <v>0</v>
       </c>
@@ -4708,7 +4717,7 @@
       <c r="A54" s="40">
         <v>3</v>
       </c>
-      <c r="B54" s="77"/>
+      <c r="B54" s="79"/>
       <c r="C54" s="59">
         <v>0</v>
       </c>
@@ -4728,7 +4737,7 @@
       <c r="A55" s="40">
         <v>3</v>
       </c>
-      <c r="B55" s="77"/>
+      <c r="B55" s="79"/>
       <c r="C55" s="59">
         <v>0</v>
       </c>
@@ -4748,7 +4757,7 @@
       <c r="A56" s="40">
         <v>3</v>
       </c>
-      <c r="B56" s="77"/>
+      <c r="B56" s="79"/>
       <c r="C56" s="59">
         <v>0</v>
       </c>
@@ -4768,7 +4777,7 @@
       <c r="A57" s="40">
         <v>3</v>
       </c>
-      <c r="B57" s="77"/>
+      <c r="B57" s="79"/>
       <c r="C57" s="59">
         <v>0</v>
       </c>
@@ -4788,7 +4797,7 @@
       <c r="A58" s="40">
         <v>3</v>
       </c>
-      <c r="B58" s="77"/>
+      <c r="B58" s="79"/>
       <c r="C58" s="59">
         <v>0</v>
       </c>
@@ -4808,7 +4817,7 @@
       <c r="A59" s="40">
         <v>3</v>
       </c>
-      <c r="B59" s="77"/>
+      <c r="B59" s="79"/>
       <c r="C59" s="59">
         <v>0</v>
       </c>
@@ -4828,7 +4837,7 @@
       <c r="A60" s="40">
         <v>3</v>
       </c>
-      <c r="B60" s="77"/>
+      <c r="B60" s="79"/>
       <c r="C60" s="59">
         <v>0</v>
       </c>
@@ -4848,7 +4857,7 @@
       <c r="A61" s="40">
         <v>2</v>
       </c>
-      <c r="B61" s="77"/>
+      <c r="B61" s="79"/>
       <c r="C61" s="59">
         <v>0</v>
       </c>
@@ -4868,7 +4877,7 @@
       <c r="A62" s="40">
         <v>1</v>
       </c>
-      <c r="B62" s="77"/>
+      <c r="B62" s="79"/>
       <c r="C62" s="59">
         <v>0</v>
       </c>
@@ -4888,7 +4897,7 @@
       <c r="A63" s="40">
         <v>2</v>
       </c>
-      <c r="B63" s="77"/>
+      <c r="B63" s="79"/>
       <c r="C63" s="59">
         <v>0</v>
       </c>
@@ -4908,7 +4917,7 @@
       <c r="A64" s="40">
         <v>1</v>
       </c>
-      <c r="B64" s="77"/>
+      <c r="B64" s="79"/>
       <c r="C64" s="59">
         <v>0</v>
       </c>
@@ -4928,7 +4937,7 @@
       <c r="A65" s="40">
         <v>2</v>
       </c>
-      <c r="B65" s="77"/>
+      <c r="B65" s="79"/>
       <c r="C65" s="59">
         <v>0</v>
       </c>
@@ -4948,7 +4957,7 @@
       <c r="A66" s="40">
         <v>2</v>
       </c>
-      <c r="B66" s="77"/>
+      <c r="B66" s="79"/>
       <c r="C66" s="59">
         <v>0</v>
       </c>
@@ -4968,7 +4977,7 @@
       <c r="A67" s="40">
         <v>2</v>
       </c>
-      <c r="B67" s="77"/>
+      <c r="B67" s="79"/>
       <c r="C67" s="59">
         <v>0</v>
       </c>
@@ -4988,7 +4997,7 @@
       <c r="A68" s="40">
         <v>2</v>
       </c>
-      <c r="B68" s="77"/>
+      <c r="B68" s="79"/>
       <c r="C68" s="59">
         <v>0</v>
       </c>
@@ -5008,7 +5017,7 @@
       <c r="A69" s="40">
         <v>1</v>
       </c>
-      <c r="B69" s="77"/>
+      <c r="B69" s="79"/>
       <c r="C69" s="59">
         <v>0</v>
       </c>
@@ -5028,7 +5037,7 @@
       <c r="A70" s="40">
         <v>2</v>
       </c>
-      <c r="B70" s="77"/>
+      <c r="B70" s="79"/>
       <c r="C70" s="59">
         <v>0</v>
       </c>
@@ -5048,7 +5057,7 @@
       <c r="A71" s="40">
         <v>2</v>
       </c>
-      <c r="B71" s="77"/>
+      <c r="B71" s="79"/>
       <c r="C71" s="59">
         <v>0</v>
       </c>
@@ -5068,7 +5077,7 @@
       <c r="A72" s="40">
         <v>2</v>
       </c>
-      <c r="B72" s="78"/>
+      <c r="B72" s="80"/>
       <c r="C72" s="59">
         <v>0</v>
       </c>
@@ -5113,7 +5122,7 @@
       <c r="A74" s="40">
         <v>3</v>
       </c>
-      <c r="B74" s="76" t="s">
+      <c r="B74" s="81" t="s">
         <v>31</v>
       </c>
       <c r="C74" s="59">
@@ -5138,7 +5147,7 @@
       <c r="A75" s="40">
         <v>1</v>
       </c>
-      <c r="B75" s="77"/>
+      <c r="B75" s="79"/>
       <c r="C75" s="59">
         <v>0</v>
       </c>
@@ -5171,10 +5180,10 @@
         <f>SUM(E4:E75)</f>
         <v>0</v>
       </c>
-      <c r="F76" s="80" t="s">
+      <c r="F76" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="G76" s="81"/>
+      <c r="G76" s="77"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" s="35"/>
@@ -5192,17 +5201,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G4:G18"/>
+    <mergeCell ref="G19:G37"/>
+    <mergeCell ref="G38:G72"/>
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="A1:G2"/>
     <mergeCell ref="G74:G75"/>
     <mergeCell ref="F76:G76"/>
     <mergeCell ref="C77:G77"/>
     <mergeCell ref="B19:B37"/>
     <mergeCell ref="B38:B72"/>
     <mergeCell ref="B74:B75"/>
-    <mergeCell ref="G4:G18"/>
-    <mergeCell ref="G19:G37"/>
-    <mergeCell ref="G38:G72"/>
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="A1:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5214,8 +5223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273CE048-D0D1-43BD-A4D6-E7F0FEA92969}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5303,21 +5312,21 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="94" t="s">
         <v>205</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="94" t="s">
         <v>204</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="94" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="81" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="53" t="s">
@@ -5331,7 +5340,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="77"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="53" t="s">
         <v>200</v>
       </c>
@@ -5343,7 +5352,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="77"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="53" t="s">
         <v>198</v>
       </c>
@@ -5355,7 +5364,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="77"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="53" t="s">
         <v>196</v>
       </c>
@@ -5367,7 +5376,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="77"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="53" t="s">
         <v>194</v>
       </c>
@@ -5379,7 +5388,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="77"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="53" t="s">
         <v>192</v>
       </c>
@@ -5391,7 +5400,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="77"/>
+      <c r="A15" s="79"/>
       <c r="B15" s="53" t="s">
         <v>190</v>
       </c>
@@ -5403,7 +5412,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="77"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="53" t="s">
         <v>188</v>
       </c>
@@ -5415,7 +5424,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="77"/>
+      <c r="A17" s="79"/>
       <c r="B17" s="53" t="s">
         <v>186</v>
       </c>
@@ -5427,7 +5436,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="77"/>
+      <c r="A18" s="79"/>
       <c r="B18" s="53" t="s">
         <v>184</v>
       </c>
@@ -5439,7 +5448,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="77"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="53" t="s">
         <v>182</v>
       </c>
@@ -5451,7 +5460,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="77"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="53" t="s">
         <v>180</v>
       </c>
@@ -5463,7 +5472,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="77"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="53" t="s">
         <v>178</v>
       </c>
@@ -5475,7 +5484,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="77"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="53" t="s">
         <v>176</v>
       </c>
@@ -5487,7 +5496,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="78"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="53" t="s">
         <v>174</v>
       </c>
@@ -5499,7 +5508,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="78" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="53" t="s">
@@ -5513,7 +5522,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="77"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="53" t="s">
         <v>170</v>
       </c>
@@ -5525,7 +5534,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="77"/>
+      <c r="A26" s="79"/>
       <c r="B26" s="53" t="s">
         <v>168</v>
       </c>
@@ -5537,7 +5546,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="77"/>
+      <c r="A27" s="79"/>
       <c r="B27" s="53" t="s">
         <v>166</v>
       </c>
@@ -5549,7 +5558,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="77"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="53" t="s">
         <v>164</v>
       </c>
@@ -5561,7 +5570,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="77"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="53" t="s">
         <v>162</v>
       </c>
@@ -5573,7 +5582,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="77"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="53" t="s">
         <v>160</v>
       </c>
@@ -5585,7 +5594,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="77"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="53" t="s">
         <v>158</v>
       </c>
@@ -5597,7 +5606,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="77"/>
+      <c r="A32" s="79"/>
       <c r="B32" s="53" t="s">
         <v>156</v>
       </c>
@@ -5609,7 +5618,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="77"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="53" t="s">
         <v>154</v>
       </c>
@@ -5621,7 +5630,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="77"/>
+      <c r="A34" s="79"/>
       <c r="B34" s="53" t="s">
         <v>152</v>
       </c>
@@ -5633,7 +5642,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="77"/>
+      <c r="A35" s="79"/>
       <c r="B35" s="53" t="s">
         <v>150</v>
       </c>
@@ -5645,7 +5654,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" s="77"/>
+      <c r="A36" s="79"/>
       <c r="B36" s="53" t="s">
         <v>148</v>
       </c>
@@ -5657,7 +5666,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" s="77"/>
+      <c r="A37" s="79"/>
       <c r="B37" s="53" t="s">
         <v>146</v>
       </c>
@@ -5669,7 +5678,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" s="77"/>
+      <c r="A38" s="79"/>
       <c r="B38" s="53" t="s">
         <v>144</v>
       </c>
@@ -5681,7 +5690,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="77"/>
+      <c r="A39" s="79"/>
       <c r="B39" s="53" t="s">
         <v>142</v>
       </c>
@@ -5693,7 +5702,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="77"/>
+      <c r="A40" s="79"/>
       <c r="B40" s="53" t="s">
         <v>140</v>
       </c>
@@ -5705,7 +5714,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="77"/>
+      <c r="A41" s="79"/>
       <c r="B41" s="53" t="s">
         <v>138</v>
       </c>
@@ -5717,7 +5726,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="78"/>
+      <c r="A42" s="80"/>
       <c r="B42" s="53" t="s">
         <v>136</v>
       </c>
@@ -5729,7 +5738,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" s="76" t="s">
+      <c r="A43" s="81" t="s">
         <v>134</v>
       </c>
       <c r="B43" s="53" t="s">
@@ -5743,7 +5752,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" s="77"/>
+      <c r="A44" s="79"/>
       <c r="B44" s="53" t="s">
         <v>131</v>
       </c>
@@ -5755,7 +5764,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" s="77"/>
+      <c r="A45" s="79"/>
       <c r="B45" s="53" t="s">
         <v>129</v>
       </c>
@@ -5767,7 +5776,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="77"/>
+      <c r="A46" s="79"/>
       <c r="B46" s="53" t="s">
         <v>127</v>
       </c>
@@ -5779,7 +5788,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" s="77"/>
+      <c r="A47" s="79"/>
       <c r="B47" s="53" t="s">
         <v>125</v>
       </c>
@@ -5791,7 +5800,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A48" s="77"/>
+      <c r="A48" s="79"/>
       <c r="B48" s="53" t="s">
         <v>123</v>
       </c>
@@ -5803,7 +5812,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A49" s="77"/>
+      <c r="A49" s="79"/>
       <c r="B49" s="53" t="s">
         <v>121</v>
       </c>
@@ -5815,7 +5824,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A50" s="77"/>
+      <c r="A50" s="79"/>
       <c r="B50" s="53" t="s">
         <v>119</v>
       </c>
@@ -5827,7 +5836,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" s="77"/>
+      <c r="A51" s="79"/>
       <c r="B51" s="53" t="s">
         <v>117</v>
       </c>
@@ -5839,7 +5848,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A52" s="77"/>
+      <c r="A52" s="79"/>
       <c r="B52" s="53" t="s">
         <v>115</v>
       </c>
@@ -5851,7 +5860,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A53" s="77"/>
+      <c r="A53" s="79"/>
       <c r="B53" s="53" t="s">
         <v>113</v>
       </c>
@@ -5863,7 +5872,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A54" s="77"/>
+      <c r="A54" s="79"/>
       <c r="B54" s="53" t="s">
         <v>111</v>
       </c>
@@ -5875,7 +5884,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A55" s="77"/>
+      <c r="A55" s="79"/>
       <c r="B55" s="53" t="s">
         <v>109</v>
       </c>
@@ -5887,7 +5896,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A56" s="77"/>
+      <c r="A56" s="79"/>
       <c r="B56" s="53" t="s">
         <v>107</v>
       </c>
@@ -5899,7 +5908,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A57" s="77"/>
+      <c r="A57" s="79"/>
       <c r="B57" s="53" t="s">
         <v>105</v>
       </c>
@@ -5911,7 +5920,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A58" s="77"/>
+      <c r="A58" s="79"/>
       <c r="B58" s="53" t="s">
         <v>103</v>
       </c>
@@ -5923,7 +5932,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A59" s="77"/>
+      <c r="A59" s="79"/>
       <c r="B59" s="53" t="s">
         <v>101</v>
       </c>
@@ -5935,7 +5944,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A60" s="77"/>
+      <c r="A60" s="79"/>
       <c r="B60" s="53" t="s">
         <v>99</v>
       </c>
@@ -5947,7 +5956,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A61" s="77"/>
+      <c r="A61" s="79"/>
       <c r="B61" s="53" t="s">
         <v>97</v>
       </c>
@@ -5959,7 +5968,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A62" s="77"/>
+      <c r="A62" s="79"/>
       <c r="B62" s="53" t="s">
         <v>95</v>
       </c>
@@ -5971,7 +5980,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A63" s="77"/>
+      <c r="A63" s="79"/>
       <c r="B63" s="53" t="s">
         <v>93</v>
       </c>
@@ -5983,7 +5992,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A64" s="77"/>
+      <c r="A64" s="79"/>
       <c r="B64" s="53" t="s">
         <v>91</v>
       </c>
@@ -5995,7 +6004,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A65" s="77"/>
+      <c r="A65" s="79"/>
       <c r="B65" s="53" t="s">
         <v>89</v>
       </c>
@@ -6007,7 +6016,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A66" s="77"/>
+      <c r="A66" s="79"/>
       <c r="B66" s="53" t="s">
         <v>87</v>
       </c>
@@ -6019,7 +6028,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A67" s="77"/>
+      <c r="A67" s="79"/>
       <c r="B67" s="53" t="s">
         <v>85</v>
       </c>
@@ -6031,7 +6040,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A68" s="77"/>
+      <c r="A68" s="79"/>
       <c r="B68" s="53" t="s">
         <v>83</v>
       </c>
@@ -6043,7 +6052,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A69" s="77"/>
+      <c r="A69" s="79"/>
       <c r="B69" s="53" t="s">
         <v>81</v>
       </c>
@@ -6055,7 +6064,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A70" s="77"/>
+      <c r="A70" s="79"/>
       <c r="B70" s="53" t="s">
         <v>79</v>
       </c>
@@ -6067,7 +6076,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A71" s="77"/>
+      <c r="A71" s="79"/>
       <c r="B71" s="53" t="s">
         <v>77</v>
       </c>
@@ -6079,7 +6088,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A72" s="77"/>
+      <c r="A72" s="79"/>
       <c r="B72" s="53" t="s">
         <v>75</v>
       </c>
@@ -6091,7 +6100,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A73" s="77"/>
+      <c r="A73" s="79"/>
       <c r="B73" s="53" t="s">
         <v>73</v>
       </c>
@@ -6103,7 +6112,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A74" s="77"/>
+      <c r="A74" s="79"/>
       <c r="B74" s="53" t="s">
         <v>71</v>
       </c>
@@ -6115,7 +6124,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A75" s="77"/>
+      <c r="A75" s="79"/>
       <c r="B75" s="53" t="s">
         <v>69</v>
       </c>
@@ -6127,7 +6136,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A76" s="77"/>
+      <c r="A76" s="79"/>
       <c r="B76" s="53" t="s">
         <v>67</v>
       </c>
@@ -6139,7 +6148,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A77" s="78"/>
+      <c r="A77" s="80"/>
       <c r="B77" s="53" t="s">
         <v>65</v>
       </c>
@@ -6165,7 +6174,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A79" s="76" t="s">
+      <c r="A79" s="81" t="s">
         <v>31</v>
       </c>
       <c r="B79" s="53" t="s">
@@ -6179,7 +6188,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A80" s="77"/>
+      <c r="A80" s="79"/>
       <c r="B80" s="52" t="s">
         <v>57</v>
       </c>
